--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12792" windowHeight="5304" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12792" windowHeight="5304"/>
   </bookViews>
   <sheets>
     <sheet name="addCustomerTest" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,6 @@
     <t>lastName</t>
   </si>
   <si>
-    <t>Salman</t>
-  </si>
-  <si>
-    <t>Sattar</t>
-  </si>
-  <si>
     <t>Postcode</t>
   </si>
   <si>
@@ -66,7 +60,13 @@
     <t>Account created successfully</t>
   </si>
   <si>
-    <t>Salman Sattar</t>
+    <t>lalu lattar</t>
+  </si>
+  <si>
+    <t>lalu</t>
+  </si>
+  <si>
+    <t>lattar</t>
   </si>
 </sst>
 </file>
@@ -387,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -404,24 +404,24 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -433,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,24 +446,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
